--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220512_173143.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220512_173143.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>SONY MUSIC</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>EDAM</t>
@@ -1867,7 +1864,7 @@
         <v>182</v>
       </c>
       <c r="G28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H28" t="s">
         <v>234</v>
@@ -1971,7 +1968,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" t="s">
         <v>234</v>
@@ -2023,7 +2020,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H34" t="s">
         <v>234</v>
@@ -2049,7 +2046,7 @@
         <v>183</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H35" t="s">
         <v>234</v>
@@ -2101,10 +2098,10 @@
         <v>184</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2127,7 +2124,7 @@
         <v>183</v>
       </c>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H38" t="s">
         <v>234</v>
@@ -2153,7 +2150,7 @@
         <v>185</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H39" t="s">
         <v>234</v>
@@ -2361,7 +2358,7 @@
         <v>187</v>
       </c>
       <c r="G47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H47" t="s">
         <v>234</v>
@@ -2387,7 +2384,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H48" t="s">
         <v>234</v>
@@ -2543,7 +2540,7 @@
         <v>189</v>
       </c>
       <c r="G54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
         <v>234</v>
@@ -2569,7 +2566,7 @@
         <v>190</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H55" t="s">
         <v>234</v>
@@ -2595,7 +2592,7 @@
         <v>191</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H56" t="s">
         <v>234</v>
@@ -2621,10 +2618,10 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2673,7 +2670,7 @@
         <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H59" t="s">
         <v>234</v>
@@ -2699,7 +2696,7 @@
         <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H60" t="s">
         <v>234</v>
@@ -2725,7 +2722,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H61" t="s">
         <v>234</v>
@@ -2855,7 +2852,7 @@
         <v>197</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H66" t="s">
         <v>234</v>
@@ -2907,7 +2904,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H68" t="s">
         <v>234</v>
@@ -2933,7 +2930,7 @@
         <v>199</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H69" t="s">
         <v>234</v>
@@ -2959,7 +2956,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H70" t="s">
         <v>234</v>
@@ -2985,7 +2982,7 @@
         <v>200</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H71" t="s">
         <v>234</v>
@@ -3037,10 +3034,10 @@
         <v>202</v>
       </c>
       <c r="G73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3063,7 +3060,7 @@
         <v>203</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H74" t="s">
         <v>234</v>
@@ -3089,7 +3086,7 @@
         <v>204</v>
       </c>
       <c r="G75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H75" t="s">
         <v>234</v>
@@ -3141,7 +3138,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H77" t="s">
         <v>234</v>
@@ -3193,7 +3190,7 @@
         <v>206</v>
       </c>
       <c r="G79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H79" t="s">
         <v>234</v>
@@ -3297,7 +3294,7 @@
         <v>209</v>
       </c>
       <c r="G83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H83" t="s">
         <v>234</v>
@@ -3401,7 +3398,7 @@
         <v>186</v>
       </c>
       <c r="G87" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H87" t="s">
         <v>234</v>
@@ -3427,10 +3424,10 @@
         <v>212</v>
       </c>
       <c r="G88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3531,7 +3528,7 @@
         <v>216</v>
       </c>
       <c r="G92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H92" t="s">
         <v>234</v>
@@ -3635,7 +3632,7 @@
         <v>217</v>
       </c>
       <c r="G96" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H96" t="s">
         <v>234</v>
@@ -3687,7 +3684,7 @@
         <v>219</v>
       </c>
       <c r="G98" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H98" t="s">
         <v>234</v>
@@ -3713,7 +3710,7 @@
         <v>220</v>
       </c>
       <c r="G99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H99" t="s">
         <v>234</v>
@@ -3765,7 +3762,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H101" t="s">
         <v>234</v>
